--- a/data/trans_dic/P16B97-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Edad-trans_dic.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 100,0</t>
+          <t>33,12; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,95; 100,0</t>
+          <t>56,83; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,65; 100,0</t>
+          <t>74,25; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,0; 100,0</t>
+          <t>60,26; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,79; 100,0</t>
+          <t>80,57; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,06; 97,43</t>
+          <t>72,27; 97,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,97; 100,0</t>
+          <t>83,42; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,11; 98,58</t>
+          <t>84,1; 98,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,79; 100,0</t>
+          <t>86,95; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,52; 100,0</t>
+          <t>90,68; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,06; 100,0</t>
+          <t>93,54; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,04; 100,0</t>
+          <t>93,86; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,92; 100,0</t>
+          <t>93,23; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,73; 100,0</t>
+          <t>97,58; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>94,91; 100,0</t>
+          <t>95,91; 100,0</t>
         </is>
       </c>
     </row>
@@ -1260,12 +1260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,03; 99,15</t>
+          <t>91,46; 99,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,7; 100,0</t>
+          <t>94,61; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,41; 99,49</t>
+          <t>95,44; 99,45</t>
         </is>
       </c>
     </row>
@@ -1350,42 +1350,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,28; 100,0</t>
+          <t>98,32; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,8; 100,0</t>
+          <t>96,74; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,21; 100,0</t>
+          <t>95,09; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,2; 99,62</t>
+          <t>97,25; 99,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,54; 99,24</t>
+          <t>95,73; 99,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,93; 99,61</t>
+          <t>98,01; 99,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,17</t>
+          <t>96,94; 99,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B97-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,77; 100,0</t>
+          <t>42,05; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,12; 100,0</t>
+          <t>33,73; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,83; 100,0</t>
+          <t>48,67; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,25; 100,0</t>
+          <t>78,39; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,26; 100,0</t>
+          <t>56,0; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,57; 100,0</t>
+          <t>79,69; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,27; 97,43</t>
+          <t>73,46; 97,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,42; 100,0</t>
+          <t>84,15; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,1; 98,59</t>
+          <t>84,85; 98,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,95; 100,0</t>
+          <t>86,62; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,68; 100,0</t>
+          <t>89,29; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,54; 100,0</t>
+          <t>92,98; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>95,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,86; 100,0</t>
+          <t>93,82; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,23; 100,0</t>
+          <t>90,13; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,58; 100,0</t>
+          <t>97,5; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,91; 100,0</t>
+          <t>94,49; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,44; 100,0</t>
+          <t>85,6; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,46; 99,11</t>
+          <t>91,02; 99,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,61; 100,0</t>
+          <t>91,58; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,44; 99,45</t>
+          <t>95,28; 99,53</t>
         </is>
       </c>
     </row>
@@ -1350,27 +1350,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100,0</t>
+          <t>98,36; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,89; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,09; 100,0</t>
+          <t>94,73; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,62</t>
+          <t>97,1; 99,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,34</t>
+          <t>95,54; 99,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,64</t>
+          <t>97,66; 99,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96,94; 99,31</t>
+          <t>97,03; 99,26</t>
         </is>
       </c>
     </row>
